--- a/宫颈癌/分析结果.xlsx
+++ b/宫颈癌/分析结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="8145" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="候选位点信息" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="467">
   <si>
     <t>Name</t>
   </si>
@@ -1306,13 +1306,241 @@
   </si>
   <si>
     <t>20:21685290-21685597</t>
+  </si>
+  <si>
+    <t>cg03427298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM_001005527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg03140968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg04811512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg04881131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg07212852</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg08448701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg16937268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg17620199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg19054524</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg22058250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg22837767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg22906273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg26463200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg00027083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg01065349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg01673082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg03718824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg04684656</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg06550462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg07003920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg07352438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg11064255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg12757155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg12967001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg13034362</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg14874516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg15528411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg16304950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg16622495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg16648887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg16924702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg17813328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg18543270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg19120897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg19275261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg19579167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg22091110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg22335490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg23564700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg23847381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg24496223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg26086468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg26790372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg26884658</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg27082185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg27112102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg26170805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg01783070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg12417685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg05893614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg08038353</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg12219082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg09868336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg12412079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg13921352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cg20375342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1325,6 +1553,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1351,7 +1587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1359,6 +1595,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1644,7 +1883,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D28"/>
+      <selection activeCell="C1" sqref="C1:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1896,7 +2135,7 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>411</v>
       </c>
       <c r="D11" t="s">
         <v>141</v>
@@ -2524,13 +2763,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AG10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="138.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="56" bestFit="1" customWidth="1"/>
@@ -2642,7 +2882,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>410</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2713,7 +2953,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -2790,7 +3030,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2863,8 +3103,8 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>16</v>
+      <c r="A5" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -2949,8 +3189,8 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>18</v>
+      <c r="A6" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -3035,8 +3275,8 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>19</v>
+      <c r="A7" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -3121,8 +3361,8 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>20</v>
+      <c r="A8" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3208,7 +3448,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -3285,7 +3525,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -3374,11 +3614,12 @@
   <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="61.75" customWidth="1"/>
@@ -3493,7 +3734,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>342</v>
@@ -3582,7 +3823,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
         <v>349</v>
@@ -3671,7 +3912,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
         <v>354</v>
@@ -3742,7 +3983,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
         <v>358</v>
@@ -3828,7 +4069,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
         <v>365</v>
@@ -3902,7 +4143,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
         <v>372</v>
@@ -3991,7 +4232,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
@@ -4074,7 +4315,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
         <v>382</v>
@@ -4148,7 +4389,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
         <v>386</v>
@@ -4237,7 +4478,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>391</v>
@@ -4323,7 +4564,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>396</v>
@@ -4400,7 +4641,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
         <v>400</v>
@@ -4486,7 +4727,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
         <v>405</v>
@@ -4574,8 +4815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4692,7 +4933,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>424</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>168</v>
@@ -4781,7 +5022,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>175</v>
@@ -4849,7 +5090,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>181</v>
@@ -5000,7 +5241,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>190</v>
+        <v>427</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>190</v>
@@ -5077,7 +5318,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>195</v>
+        <v>428</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>195</v>
@@ -5145,7 +5386,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>199</v>
+        <v>429</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>199</v>
@@ -5222,7 +5463,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>203</v>
+        <v>430</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>203</v>
@@ -5293,7 +5534,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>208</v>
+        <v>431</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>208</v>
@@ -5382,7 +5623,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>214</v>
+        <v>432</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>214</v>
@@ -5453,7 +5694,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>219</v>
+        <v>433</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>219</v>
@@ -5521,7 +5762,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>223</v>
+        <v>434</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>223</v>
@@ -5613,7 +5854,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>229</v>
+        <v>435</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>229</v>
@@ -5684,7 +5925,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>233</v>
+        <v>436</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>233</v>
@@ -5749,7 +5990,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>238</v>
@@ -5823,7 +6064,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>243</v>
+        <v>438</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>243</v>
@@ -5912,7 +6153,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>251</v>
+        <v>439</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>251</v>
@@ -6004,7 +6245,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>256</v>
+        <v>440</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>256</v>
@@ -6060,7 +6301,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>260</v>
+        <v>441</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>260</v>
@@ -6143,7 +6384,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>265</v>
+        <v>442</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>265</v>
@@ -6199,7 +6440,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>269</v>
+        <v>443</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>269</v>
@@ -6291,7 +6532,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>274</v>
+        <v>444</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>274</v>
@@ -6359,7 +6600,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>280</v>
+        <v>445</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>280</v>
@@ -6436,7 +6677,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>285</v>
+        <v>446</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>285</v>
@@ -6528,7 +6769,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>290</v>
+        <v>447</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>290</v>
@@ -6596,7 +6837,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>294</v>
+        <v>448</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>294</v>
@@ -6676,7 +6917,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>299</v>
+        <v>449</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>299</v>
@@ -6762,7 +7003,7 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>304</v>
+        <v>450</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>304</v>
@@ -6854,7 +7095,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>309</v>
+        <v>451</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>309</v>
@@ -6937,7 +7178,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>314</v>
+        <v>452</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>314</v>
@@ -7005,7 +7246,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>319</v>
@@ -7082,7 +7323,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>324</v>
@@ -7159,7 +7400,7 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>328</v>
+        <v>454</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>328</v>
@@ -7224,7 +7465,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>333</v>
+        <v>455</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>333</v>
@@ -7295,7 +7536,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>337</v>
+        <v>456</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>337</v>
